--- a/relatorios_simplificados/separarPediatrico_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarPediatrico_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,74 +437,104 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Nilópolis</t>
+          <t>Paciente RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Nilópolis</t>
+          <t>Quantidade RJ - Itaguaí</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Paracambi</t>
+          <t>Paciente RJ - Japeri</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Paracambi</t>
+          <t>Quantidade RJ - Japeri</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Magé</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Magé</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Magé</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Queimados</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RJ - Queimados</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Queimados</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - São João de Meriti</t>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Seropédica</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>THEO LUCCA DOS SANTOS SILVA</t>
+          <t>MARIA CLARA PERES MOTA DE LIMA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -512,7 +542,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -525,12 +555,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -538,25 +568,61 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ARTHUR DE SOUZA DANTAS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HEITOR RAVI SILVERIO FELICIANO</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -569,12 +635,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -582,329 +648,323 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>MANUELLA LIMA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NICOLLAS LINS DE MELO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>AQUILES SANTOS PEIXOTO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ESTHER DE LIMA SILVA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PEDRO LUCAS DE OLIVEIRA COSTA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ARTHUR DE SOUZA DANTAS</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ISABELLY ANDRADE DOS REIS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>AQUILES SANTOS PEIXOTO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ISAAC DA SILVA SOUZA</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ESTHER DE LIMA SILVA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISABELLY ANDRADE DOS REIS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -917,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,27 +1045,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>THEO LUCCA DOS SANTOS SILVA</t>
+          <t>MARIA CLARA PERES MOTA DE LIMA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>19/08/2015</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1040,22 +1100,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28/03/2018</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1095,22 +1155,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HEITOR RAVI SILVERIO FELICIANO</t>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15/05/2020</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1150,22 +1210,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
+          <t>ESTHER DE LIMA SILVA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27/05/2014</t>
+          <t>28/12/2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1205,22 +1265,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+          <t>ISABELLY ANDRADE DOS REIS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>16/08/2015</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1260,27 +1320,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>09/12/2025 12:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1288,7 +1348,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1303,39 +1363,39 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05/05/2012</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1343,7 +1403,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1358,34 +1418,34 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
+          <t>ESTHER DE LIMA SILVA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28/03/2018</t>
+          <t>28/12/2019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1425,27 +1485,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
+          <t>ISABELLY ANDRADE DOS REIS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27/05/2014</t>
+          <t>16/08/2015</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1453,7 +1513,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1468,39 +1528,39 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05/05/2012</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1508,7 +1568,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1523,39 +1583,39 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1563,7 +1623,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1578,39 +1638,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14/09/2021</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1618,7 +1678,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1633,39 +1693,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1673,7 +1733,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1688,39 +1748,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NICOLLAS LINS DE MELO</t>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11/08/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1755,27 +1815,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS DE OLIVEIRA COSTA</t>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>03/03/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1783,7 +1843,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1798,39 +1858,39 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14/09/2021</t>
+          <t>23/10/2019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1838,7 +1898,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1853,39 +1913,39 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08/11/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
+          <t>MANUELLA LIMA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>14/04/2013</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1893,7 +1953,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1908,39 +1968,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>23/10/2019</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1948,7 +2008,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1963,39 +2023,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>ARTHUR DE SOUZA DANTAS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>15/06/2017</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2030,27 +2090,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>26/01/2014</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2085,27 +2145,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
+          <t>AQUILES SANTOS PEIXOTO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>02/03/2017</t>
+          <t>07/04/2012</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2140,27 +2200,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
+          <t>ARTHUR DE SOUZA DANTAS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>06/07/2020</t>
+          <t>15/06/2017</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2168,7 +2228,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2183,39 +2243,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>26/01/2014</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2223,7 +2283,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2238,39 +2298,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>AQUILES SANTOS PEIXOTO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>07/04/2012</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2278,7 +2338,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2293,39 +2353,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2333,7 +2393,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2348,39 +2408,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>02/03/2017</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2388,7 +2448,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2403,67 +2463,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>02/11/2025 08:00</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>06/07/2020</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>

--- a/relatorios_simplificados/separarPediatrico_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarPediatrico_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,74 +437,104 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Nilópolis</t>
+          <t>Paciente RJ - Seropédica</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Nilópolis</t>
+          <t>Quantidade RJ - Seropédica</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Magé</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Magé</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Magé</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Queimados</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RJ - Queimados</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Paracambi</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>THEO LUCCA DOS SANTOS SILVA</t>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -512,12 +542,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -525,12 +555,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
+          <t>MARIA CLARA PERES MOTA DE LIMA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -538,7 +568,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
+          <t>MANUELLA LIMA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -549,19 +579,55 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS DE OLIVEIRA COSTA</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -569,12 +635,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -582,7 +648,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -591,6 +657,32 @@
         </is>
       </c>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>AQUILES SANTOS PEIXOTO</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,12 +692,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NICOLLAS LINS DE MELO</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -613,12 +705,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>ISABELLY ANDRADE DOS REIS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -626,15 +718,31 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>ARTHUR DE SOUZA DANTAS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -644,12 +752,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -657,28 +765,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>ESTHER DE LIMA SILVA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ARTHUR DE SOUZA DANTAS</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,43 +800,39 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>HEITOR RAVI SILVERIO FELICIANO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -730,43 +840,39 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
+          <t>ISABELLY ANDRADE DOS REIS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>AQUILES SANTOS PEIXOTO</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -779,30 +885,26 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
+          <t>ESTHER DE LIMA SILVA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -813,30 +915,26 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -847,64 +945,26 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -917,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,27 +1045,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>THEO LUCCA DOS SANTOS SILVA</t>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1040,27 +1100,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
+          <t>PAULO ARTHUR ANDRADE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14/09/2021</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1068,7 +1128,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1083,39 +1143,39 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PEDRO LUCAS DE OLIVEIRA COSTA</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>03/03/2018</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1150,27 +1210,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NICOLLAS LINS DE MELO</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11/08/2018</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1205,27 +1265,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
+          <t>LAYSA ROBERTA DE ALMEIDA FERREIRA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>31/10/2013</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1233,7 +1293,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1248,39 +1308,39 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GOHAN WAINER DE OLIVEIRA SILVEIRA</t>
+          <t>ISADORA JACINTO DA SILVA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14/09/2021</t>
+          <t>25/02/2019</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1288,7 +1348,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1303,39 +1363,39 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08/11/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NICOLAS SOUZA DE OLIVEIRA RODRIGUES</t>
+          <t>MARIA CLARA PERES MOTA DE LIMA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>19/08/2015</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1343,7 +1403,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1358,39 +1418,39 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06/07/2020</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1425,27 +1485,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
+          <t>ISABELLY ANDRADE DOS REIS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02/03/2017</t>
+          <t>16/08/2015</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1480,27 +1540,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>ESTHER DE LIMA SILVA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>28/12/2019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1535,27 +1595,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1590,27 +1650,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30/10/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
+          <t>ISABELLY ANDRADE DOS REIS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>16/08/2015</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1618,7 +1678,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1633,39 +1693,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MICHAEL VICTOR ALENCAR QUIRGO</t>
+          <t>ESTHER DE LIMA SILVA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06/07/2020</t>
+          <t>28/12/2019</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1673,7 +1733,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1688,39 +1748,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PIETRO DO NASCIMENTO TEIXEIRA</t>
+          <t>ALLANA CRISTINA MENDES ALVES</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>02/03/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1728,7 +1788,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1743,39 +1803,39 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>09/12/2025 12:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>THEO LORENZO DA SILVA BARBOSA</t>
+          <t>FELIPE ODAIR BATISTA OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1783,7 +1843,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1798,39 +1858,39 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ISAAC DA SILVA SOUZA</t>
+          <t>MANUELLA LIMA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>14/04/2013</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1838,7 +1898,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1853,39 +1913,39 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>02/11/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ALYSSON ALEXANDRE FERNANDES DE LIMA SILVA</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>23/10/2019</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1893,7 +1953,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1908,39 +1968,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
+          <t>ENZO GABRIEL NASCIMENTO DE ARAUJO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>23/10/2019</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1948,7 +2008,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1963,39 +2023,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2003,7 +2063,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2018,34 +2078,34 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
+          <t>HELLENA PAULA DE AMORIM QUEIROZ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05/05/2012</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2085,22 +2145,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27/05/2014</t>
+          <t>26/01/2014</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2140,22 +2200,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HEITOR RAVI SILVERIO FELICIANO</t>
+          <t>AQUILES SANTOS PEIXOTO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15/05/2020</t>
+          <t>07/04/2012</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2195,22 +2255,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23/10/2025 08:00</t>
+          <t>04/12/2025 08:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
+          <t>ARTHUR DE SOUZA DANTAS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28/03/2018</t>
+          <t>15/06/2017</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2250,27 +2310,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>09/12/2025 08:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ANA LARA DE BARROS AVILA DE SOUZA BASILIO</t>
+          <t>ARTHUR DE SOUZA DANTAS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>15/06/2017</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2278,7 +2338,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2293,39 +2353,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BERNARDO DE ASSIS LEMOS PEREIRA</t>
+          <t>DAVI JEFFERSON NERIS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>05/05/2012</t>
+          <t>26/01/2014</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2333,7 +2393,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2348,34 +2408,34 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Paracambi</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/11/2025 07:00</t>
+          <t>10/12/2025 08:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SOPHYA GABRIELI DOS REIS GOES</t>
+          <t>AQUILES SANTOS PEIXOTO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27/05/2014</t>
+          <t>07/04/2012</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2407,61 +2467,6 @@
         </is>
       </c>
       <c r="K27" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>12/11/2025 07:00</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SOPHIA DE OLIVEIRA LOPES</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>28/03/2018</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>R$ 7.698,35</t>
         </is>
